--- a/data/trans_orig/IMC-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Habitat-trans_orig.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>IMC Adultos (tasa de respuesta: 96,87%)</t>
+          <t>Índice de Masa Corporal (IMC) medio de la población (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>26.73965233686178</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26.9834631331033</v>
+        <v>26.98346313310331</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>25.65039268535929</v>
@@ -678,10 +678,10 @@
         <v>26.18425868167643</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>26.09261596160067</v>
+        <v>26.09261596160066</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>26.27476362347058</v>
+        <v>26.27476362347059</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>25.91419047809804</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>25.91411715958564</v>
+        <v>25.9190394886926</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>26.73017779693048</v>
+        <v>26.76053986931717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26.42128380281016</v>
+        <v>26.39008782782429</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26.59599043127993</v>
+        <v>26.623531763076</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>25.28565234556236</v>
+        <v>25.30993498070952</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>25.78696768567075</v>
+        <v>25.8184975821144</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>25.7153374575931</v>
+        <v>25.70259776538435</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>25.96839333177034</v>
+        <v>26.01477440297705</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>25.70276395778557</v>
+        <v>25.67126582708269</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26.41588891319832</v>
+        <v>26.39995220042934</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26.15503350262864</v>
+        <v>26.15251324298857</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>26.3896172217571</v>
+        <v>26.39567769403745</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>26.44598842487765</v>
+        <v>26.45517991359768</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>27.40477295067191</v>
+        <v>27.41103952706917</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27.09476382009214</v>
+        <v>27.06449087808444</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27.32600459103502</v>
+        <v>27.33300714518866</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>26.00521190266252</v>
+        <v>26.00034872235719</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>26.56097975321361</v>
+        <v>26.6005602359566</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>26.49377970036981</v>
+        <v>26.48983152931148</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>26.57276126968335</v>
+        <v>26.56884931589751</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>26.13510310512099</v>
+        <v>26.13018616403326</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>26.89300774320498</v>
+        <v>26.89936161734189</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26.69073849455271</v>
+        <v>26.69038437108506</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>26.87233401914833</v>
+        <v>26.88012240728014</v>
       </c>
     </row>
     <row r="7">
@@ -820,7 +820,7 @@
         <v>25.78661394109309</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>25.98199815037707</v>
+        <v>25.98199815037706</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>26.57935011187699</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>26.0966330162206</v>
+        <v>26.1094137560381</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>26.44533151430391</v>
+        <v>26.42416884450952</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>26.26381052844641</v>
+        <v>26.24182659298529</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26.17724446861418</v>
+        <v>26.13497111250734</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>25.33093760842844</v>
+        <v>25.28580791153107</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>26.12064924959596</v>
+        <v>26.12470557936388</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>26.00225907317544</v>
+        <v>25.96634010063354</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>25.54806491406501</v>
+        <v>25.52452483072457</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>25.79477604830561</v>
+        <v>25.79268505688635</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26.37685078478361</v>
+        <v>26.3646507552006</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26.21503049034344</v>
+        <v>26.18844457971341</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>25.9183021505346</v>
+        <v>25.91843931903907</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>26.59532513797787</v>
+        <v>26.60920916515122</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>26.93164003409604</v>
+        <v>26.93353179500786</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26.8496666823203</v>
+        <v>26.85366214581955</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>26.74710901802655</v>
+        <v>26.72583522526624</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>25.9645264298679</v>
+        <v>25.92101546886508</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.81037254155897</v>
+        <v>26.81433501340726</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>26.62860530645397</v>
+        <v>26.62031103182551</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>26.04284931245949</v>
+        <v>26.04362873082555</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>26.1961853038018</v>
+        <v>26.19490967431549</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>26.78678819759957</v>
+        <v>26.78484524795075</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26.64466800026466</v>
+        <v>26.62350083778194</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>26.29544358604231</v>
+        <v>26.30422158078857</v>
       </c>
     </row>
     <row r="10">
@@ -944,7 +944,7 @@
         <v>26.65110508767925</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>25.33106362736023</v>
+        <v>25.33106362736024</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>26.3368805438712</v>
@@ -953,13 +953,13 @@
         <v>25.520229019482</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>25.81394080726539</v>
+        <v>25.8139408072654</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>25.54146879581018</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26.32911704829295</v>
+        <v>26.32911704829294</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>25.87031360738338</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>25.48350355555685</v>
+        <v>25.46041280995282</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>26.03328781546604</v>
+        <v>26.02141913134071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>25.89564834285241</v>
+        <v>25.88683231129934</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26.28286614422577</v>
+        <v>26.29621374175823</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>25.02793704567932</v>
+        <v>24.99725473447348</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>25.97772925664871</v>
+        <v>26.01325100542257</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>25.15091047572185</v>
+        <v>25.14691994086559</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>25.51089628069703</v>
+        <v>25.52006202713834</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>25.32023716912857</v>
+        <v>25.32404980220161</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26.08319506426673</v>
+        <v>26.10662885833945</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25.62439313955044</v>
+        <v>25.60211740897068</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>25.98861387233119</v>
+        <v>25.98845420494014</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>26.03785518337476</v>
+        <v>26.04479402028528</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>26.64606609469649</v>
+        <v>26.62722858497778</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26.51743937450501</v>
+        <v>26.54189422177776</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27.03016573832428</v>
+        <v>27.02645846644695</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>25.68512619018377</v>
+        <v>25.70771925205258</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>26.73651459651923</v>
+        <v>26.70381548568288</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>25.93058281962727</v>
+        <v>25.91565450971244</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>26.10833360559493</v>
+        <v>26.15652794210943</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>25.75088255537581</v>
+        <v>25.77602499027623</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26.56497439634969</v>
+        <v>26.58745919696873</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26.10924812518149</v>
+        <v>26.10223617571314</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>26.48724620846511</v>
+        <v>26.48881902172518</v>
       </c>
     </row>
     <row r="13">
@@ -1071,7 +1071,7 @@
         <v>25.76680813740403</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>26.58194036605866</v>
+        <v>26.58194036605865</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>26.40967016585312</v>
@@ -1092,16 +1092,16 @@
         <v>25.82743716408743</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>25.35682808860791</v>
+        <v>25.35682808860792</v>
       </c>
       <c r="L13" s="5" t="n">
         <v>26.30658402578697</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26.18952824239151</v>
+        <v>26.18952824239152</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>26.19502490588604</v>
+        <v>26.19502490588603</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>25.53818654130395</v>
+        <v>25.55136940022899</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>26.3371279933786</v>
+        <v>26.29656046775921</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26.14772397400944</v>
+        <v>26.14906229230231</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26.34812914409442</v>
+        <v>26.32635463708154</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>24.66868139834772</v>
+        <v>24.71249906329673</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>25.74286311580894</v>
+        <v>25.73103632871149</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>25.65237314434087</v>
+        <v>25.6680749878159</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>25.55777835144652</v>
+        <v>25.56119186435519</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>25.16099538002356</v>
+        <v>25.16055179942671</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26.08984507327899</v>
+        <v>26.08009737410497</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25.98267041996249</v>
+        <v>25.98922531825422</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>25.98676383168792</v>
+        <v>26.00120718703716</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>26.02102679415142</v>
+        <v>26.00384911181036</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>26.85591563900106</v>
+        <v>26.84184187319289</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>26.7011704992165</v>
+        <v>26.68644974872643</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>26.92765071882852</v>
+        <v>26.90326745676456</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>25.2763128506314</v>
+        <v>25.30092660080205</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>26.39355067023795</v>
+        <v>26.35551732862909</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>26.33085176666865</v>
+        <v>26.33284158822844</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>26.11287770002009</v>
+        <v>26.10718705101426</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>25.56435067002509</v>
+        <v>25.54613303109467</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>26.51410080121098</v>
+        <v>26.50265265790537</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>26.41506056060148</v>
+        <v>26.41386393142407</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>26.38653702654557</v>
+        <v>26.39954387967915</v>
       </c>
     </row>
     <row r="16">
@@ -1219,7 +1219,7 @@
         <v>25.37284301998116</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>26.26177045228867</v>
+        <v>26.26177045228866</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>25.98946834131781</v>
@@ -1228,13 +1228,13 @@
         <v>25.89950629550074</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>25.69216337234278</v>
+        <v>25.69216337234279</v>
       </c>
       <c r="L16" s="5" t="n">
         <v>26.45728594311132</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26.22812326067492</v>
+        <v>26.22812326067493</v>
       </c>
       <c r="N16" s="5" t="n">
         <v>26.2622272909227</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>25.8825628801429</v>
+        <v>25.89392568810148</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>26.52511569875035</v>
+        <v>26.52598697177431</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26.32688246840794</v>
+        <v>26.31836488622022</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26.46663701982729</v>
+        <v>26.46961789433348</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>25.19688129933321</v>
+        <v>25.21477379017806</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>26.08136035953128</v>
+        <v>26.07436931625146</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>25.81697739790176</v>
+        <v>25.82539785615779</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>25.75635069690147</v>
+        <v>25.75323041960964</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>25.58523023227892</v>
+        <v>25.58957797962626</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26.33921336298155</v>
+        <v>26.33641201572372</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26.10760655152312</v>
+        <v>26.09964259045521</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>26.14483113447151</v>
+        <v>26.15568172178001</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>26.14279962000755</v>
+        <v>26.15624490840193</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.8085077059368</v>
+        <v>26.80853582761428</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26.61857882951333</v>
+        <v>26.62693381875458</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26.79790316280507</v>
+        <v>26.80008008227193</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>25.53336641246815</v>
+        <v>25.53234440215237</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>26.43571543057899</v>
+        <v>26.44134253341147</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>26.18357958245808</v>
+        <v>26.18875251739891</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>26.0412450431986</v>
+        <v>26.04350734853763</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>25.80364230237548</v>
+        <v>25.80132165647278</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26.56891639537256</v>
+        <v>26.56295305002418</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26.34594453034822</v>
+        <v>26.34290775840676</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>26.36859782481284</v>
+        <v>26.37749246007916</v>
       </c>
     </row>
     <row r="19">
